--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A567EC-D65B-418A-90E9-527D5FE54558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA3757-DFF0-4F36-B568-967FF2FAC06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{366F86FE-49DF-46DE-8503-49CC47F726F3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC0D6C6-A8CC-4DE8-9852-9C65F436D37A}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,7 +705,7 @@
         <v>1601456.56</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J3:J35" si="1">I7-H7</f>
+        <f t="shared" ref="J7:J35" si="1">I7-H7</f>
         <v>154.56000000005588</v>
       </c>
       <c r="K7" s="3">
@@ -742,7 +742,7 @@
         <v>1443</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G35" si="2">F8*E8*D8</f>
+        <f t="shared" ref="G8:G38" si="2">F8*E8*D8</f>
         <v>1789.32</v>
       </c>
       <c r="H8" s="2">
@@ -1983,10 +1983,151 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="3"/>
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36" s="4">
+        <v>45314</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1.137</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>700.8</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" ref="H36:H38" si="7">I35</f>
+        <v>1608372.1810000001</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" ref="I36:I38" si="8">H36+G36-F36</f>
+        <v>1607671.3810000001</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" ref="J36:J38" si="9">I36-H36</f>
+        <v>-700.80000000004657</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" ref="K36:K38" si="10">I36/$H$2-1</f>
+        <v>4.794613125000069E-3</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37" s="4">
+        <v>45314</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>10000</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="7"/>
+        <v>1607671.3810000001</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="8"/>
+        <v>1608671.3810000001</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="10"/>
+        <v>5.4196131249999446E-3</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4">
+        <v>45315</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>4435</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>5543.75</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="7"/>
+        <v>1608671.3810000001</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="8"/>
+        <v>1609780.1310000001</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="9"/>
+        <v>1108.75</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="10"/>
+        <v>6.1125818750000782E-3</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA3757-DFF0-4F36-B568-967FF2FAC06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726C477-6058-4981-B923-309EFC74C3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{366F86FE-49DF-46DE-8503-49CC47F726F3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC0D6C6-A8CC-4DE8-9852-9C65F436D37A}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>44929</v>
+        <v>45294</v>
       </c>
       <c r="D2" s="6">
         <v>1.1859999999999999</v>
@@ -601,11 +601,11 @@
       </c>
       <c r="H2" s="2">
         <f>BOUNTY!$B$1</f>
-        <v>1600000</v>
+        <v>1592000</v>
       </c>
       <c r="I2" s="2">
         <f>H2+G2-F2</f>
-        <v>1601302</v>
+        <v>1593302</v>
       </c>
       <c r="J2" s="2">
         <f>I2-H2</f>
@@ -613,7 +613,7 @@
       </c>
       <c r="K2" s="3">
         <f>I2/$H$2-1</f>
-        <v>8.1375000000005748E-4</v>
+        <v>8.1783919597988586E-4</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>44930</v>
+        <v>45295</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>44931</v>
+        <v>45296</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -654,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>44932</v>
+        <v>45297</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>44933</v>
+        <v>45298</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -698,11 +698,11 @@
       </c>
       <c r="H7" s="2">
         <f>I2</f>
-        <v>1601302</v>
+        <v>1593302</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ref="I7:I35" si="0">H7+G7-F7</f>
-        <v>1601456.56</v>
+        <v>1593456.56</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:J35" si="1">I7-H7</f>
@@ -710,7 +710,7 @@
       </c>
       <c r="K7" s="3">
         <f>I7/$H$2-1</f>
-        <v>9.1035000000005972E-4</v>
+        <v>9.1492462311570932E-4</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
@@ -742,16 +742,16 @@
         <v>1443</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G38" si="2">F8*E8*D8</f>
+        <f t="shared" ref="G8:G41" si="2">F8*E8*D8</f>
         <v>1789.32</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ref="H8:H16" si="3">I7</f>
-        <v>1601456.56</v>
+        <v>1593456.56</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>1601802.8800000001</v>
+        <v>1593802.8800000001</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="1"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="K8" s="3">
         <f t="shared" ref="K8:K35" si="4">I8/$H$2-1</f>
-        <v>1.1267999999999834E-3</v>
+        <v>1.1324623115578358E-3</v>
       </c>
       <c r="L8" t="s">
         <v>26</v>
@@ -796,11 +796,11 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" si="3"/>
-        <v>1601802.8800000001</v>
+        <v>1593802.8800000001</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>1601891.78</v>
+        <v>1593891.78</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="K9" s="3">
         <f t="shared" si="4"/>
-        <v>1.1823625000000337E-3</v>
+        <v>1.1883040201006168E-3</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
@@ -845,11 +845,11 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" si="3"/>
-        <v>1601891.78</v>
+        <v>1593891.78</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>1602010.34</v>
+        <v>1594010.34</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="K10" s="3">
         <f t="shared" si="4"/>
-        <v>1.2564624999999996E-3</v>
+        <v>1.262776381909525E-3</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
@@ -894,11 +894,11 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" si="3"/>
-        <v>1602010.34</v>
+        <v>1594010.34</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>1602066.76</v>
+        <v>1594066.76</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="1"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="K11" s="3">
         <f t="shared" si="4"/>
-        <v>1.2917249999999658E-3</v>
+        <v>1.2982160804020371E-3</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -943,11 +943,11 @@
       </c>
       <c r="H12" s="2">
         <f t="shared" si="3"/>
-        <v>1602066.76</v>
+        <v>1594066.76</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>1602130.33</v>
+        <v>1594130.33</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="1"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="K12" s="3">
         <f t="shared" si="4"/>
-        <v>1.3314562499999738E-3</v>
+        <v>1.3381469849247374E-3</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -992,11 +992,11 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" si="3"/>
-        <v>1602130.33</v>
+        <v>1594130.33</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>1602279.83</v>
+        <v>1594279.83</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="4"/>
-        <v>1.4248937500001002E-3</v>
+        <v>1.4320540201004928E-3</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
@@ -1041,11 +1041,11 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="3"/>
-        <v>1602279.83</v>
+        <v>1594279.83</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
-        <v>1602359.73</v>
+        <v>1594359.73</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="1"/>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="K14" s="3">
         <f t="shared" si="4"/>
-        <v>1.4748312499999194E-3</v>
+        <v>1.4822424623115449E-3</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
@@ -1090,11 +1090,11 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="3"/>
-        <v>1602359.73</v>
+        <v>1594359.73</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>1602483.35</v>
+        <v>1594483.35</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="K15" s="3">
         <f t="shared" si="4"/>
-        <v>1.5520937499999832E-3</v>
+        <v>1.5598932160805212E-3</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
@@ -1139,11 +1139,11 @@
       </c>
       <c r="H16" s="2">
         <f t="shared" si="3"/>
-        <v>1602483.35</v>
+        <v>1594483.35</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>1602635.9200000002</v>
+        <v>1594635.9200000002</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="1"/>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="K16" s="3">
         <f t="shared" si="4"/>
-        <v>1.6474500000001058E-3</v>
+        <v>1.65572864321617E-3</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
@@ -1200,11 +1200,11 @@
       </c>
       <c r="H18" s="2">
         <f>I16</f>
-        <v>1602635.9200000002</v>
+        <v>1594635.9200000002</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="0"/>
-        <v>1602676.4800000002</v>
+        <v>1594676.4800000002</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="1"/>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="K18" s="3">
         <f t="shared" si="4"/>
-        <v>1.6728000000001408E-3</v>
+        <v>1.6812060301509835E-3</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
@@ -1249,11 +1249,11 @@
       </c>
       <c r="H19" s="2">
         <f>I18</f>
-        <v>1602676.4800000002</v>
+        <v>1594676.4800000002</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="0"/>
-        <v>1602749.5600000003</v>
+        <v>1594749.5600000003</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="1"/>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="K19" s="3">
         <f t="shared" si="4"/>
-        <v>1.7184750000001081E-3</v>
+        <v>1.7271105527640884E-3</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
@@ -1298,11 +1298,11 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" ref="H20:H21" si="5">I19</f>
-        <v>1602749.5600000003</v>
+        <v>1594749.5600000003</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>1602864.9100000004</v>
+        <v>1594864.9100000004</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="1"/>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="K20" s="3">
         <f t="shared" si="4"/>
-        <v>1.7905687500001655E-3</v>
+        <v>1.7995665829149132E-3</v>
       </c>
       <c r="L20" t="s">
         <v>26</v>
@@ -1347,11 +1347,11 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>1602864.9100000004</v>
+        <v>1594864.9100000004</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
-        <v>1603032.8700000003</v>
+        <v>1595032.8700000003</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="1"/>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="K21" s="3">
         <f t="shared" si="4"/>
-        <v>1.8955437500001171E-3</v>
+        <v>1.9050690954776073E-3</v>
       </c>
       <c r="L21" t="s">
         <v>26</v>
@@ -1408,11 +1408,11 @@
       </c>
       <c r="H23" s="2">
         <f>I21</f>
-        <v>1603032.8700000003</v>
+        <v>1595032.8700000003</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>1603385.6250000002</v>
+        <v>1595385.6250000002</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="1"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="K23" s="3">
         <f t="shared" si="4"/>
-        <v>2.1160156250001894E-3</v>
+        <v>2.12664886934677E-3</v>
       </c>
       <c r="L23" t="s">
         <v>26</v>
@@ -1457,11 +1457,11 @@
       </c>
       <c r="H24" s="2">
         <f>I23</f>
-        <v>1603385.6250000002</v>
+        <v>1595385.6250000002</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
-        <v>1603838.3250000002</v>
+        <v>1595838.3250000002</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="1"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="K24" s="3">
         <f t="shared" si="4"/>
-        <v>2.3989531250001583E-3</v>
+        <v>2.411008165829287E-3</v>
       </c>
       <c r="L24" t="s">
         <v>26</v>
@@ -1518,11 +1518,11 @@
       </c>
       <c r="H26" s="2">
         <f>I24</f>
-        <v>1603838.3250000002</v>
+        <v>1595838.3250000002</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
-        <v>1602958.3250000002</v>
+        <v>1594958.3250000002</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="1"/>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="K26" s="3">
         <f t="shared" si="4"/>
-        <v>1.8489531250001079E-3</v>
+        <v>1.8582443467338727E-3</v>
       </c>
       <c r="L26" t="s">
         <v>29</v>
@@ -1567,11 +1567,11 @@
       </c>
       <c r="H27" s="2">
         <f t="shared" ref="H27:H35" si="6">I26</f>
-        <v>1602958.3250000002</v>
+        <v>1594958.3250000002</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>1604558.3250000002</v>
+        <v>1596558.3250000002</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="1"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="K27" s="3">
         <f t="shared" si="4"/>
-        <v>2.8489531250002198E-3</v>
+        <v>2.8632694723618179E-3</v>
       </c>
       <c r="L27" t="s">
         <v>14</v>
@@ -1615,11 +1615,11 @@
       </c>
       <c r="H28" s="2">
         <f t="shared" si="6"/>
-        <v>1604558.3250000002</v>
+        <v>1596558.3250000002</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>1606914.3250000002</v>
+        <v>1598914.3250000002</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="1"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="K28" s="3">
         <f t="shared" si="4"/>
-        <v>4.3214531250002075E-3</v>
+        <v>4.3431689698494313E-3</v>
       </c>
       <c r="L28" t="s">
         <v>33</v>
@@ -1664,11 +1664,11 @@
       </c>
       <c r="H29" s="2">
         <f t="shared" si="6"/>
-        <v>1606914.3250000002</v>
+        <v>1598914.3250000002</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
-        <v>1607052.1710000001</v>
+        <v>1599052.1710000001</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="1"/>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K29" s="3">
         <f t="shared" si="4"/>
-        <v>4.4076068750000807E-3</v>
+        <v>4.4297556532664206E-3</v>
       </c>
       <c r="L29" t="s">
         <v>14</v>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="H30" s="2">
         <f t="shared" si="6"/>
-        <v>1607052.1710000001</v>
+        <v>1599052.1710000001</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>1607247.1710000001</v>
+        <v>1599247.1710000001</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="1"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="K30" s="3">
         <f t="shared" si="4"/>
-        <v>4.5294818750001298E-3</v>
+        <v>4.5522430904523237E-3</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
@@ -1762,11 +1762,11 @@
       </c>
       <c r="H31" s="2">
         <f t="shared" si="6"/>
-        <v>1607247.1710000001</v>
+        <v>1599247.1710000001</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
-        <v>1607328.6810000001</v>
+        <v>1599328.6810000001</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="1"/>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="K31" s="3">
         <f t="shared" si="4"/>
-        <v>4.5804256250001618E-3</v>
+        <v>4.6034428391961146E-3</v>
       </c>
       <c r="L31" t="s">
         <v>14</v>
@@ -1811,11 +1811,11 @@
       </c>
       <c r="H32" s="2">
         <f t="shared" si="6"/>
-        <v>1607328.6810000001</v>
+        <v>1599328.6810000001</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
-        <v>1607828.6810000001</v>
+        <v>1599828.6810000001</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="1"/>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="4"/>
-        <v>4.8929256250000996E-3</v>
+        <v>4.917513190954903E-3</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
@@ -1860,11 +1860,11 @@
       </c>
       <c r="H33" s="2">
         <f t="shared" si="6"/>
-        <v>1607828.6810000001</v>
+        <v>1599828.6810000001</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>1607658.6810000001</v>
+        <v>1599658.6810000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="1"/>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="K33" s="3">
         <f t="shared" si="4"/>
-        <v>4.7866756250001252E-3</v>
+        <v>4.8107292713568395E-3</v>
       </c>
       <c r="L33" t="s">
         <v>14</v>
@@ -1909,11 +1909,11 @@
       </c>
       <c r="H34" s="2">
         <f t="shared" si="6"/>
-        <v>1607658.6810000001</v>
+        <v>1599658.6810000001</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>1608076.1810000001</v>
+        <v>1600076.1810000001</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="1"/>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K34" s="3">
         <f t="shared" si="4"/>
-        <v>5.0476131250001277E-3</v>
+        <v>5.0729780150753356E-3</v>
       </c>
       <c r="L34" t="s">
         <v>14</v>
@@ -1958,11 +1958,11 @@
       </c>
       <c r="H35" s="2">
         <f t="shared" si="6"/>
-        <v>1608076.1810000001</v>
+        <v>1600076.1810000001</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>1608372.1810000001</v>
+        <v>1600372.1810000001</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="1"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="K35" s="3">
         <f t="shared" si="4"/>
-        <v>5.2326131250000074E-3</v>
+        <v>5.2589076633167142E-3</v>
       </c>
       <c r="L35" t="s">
         <v>26</v>
@@ -2007,11 +2007,11 @@
       </c>
       <c r="H36" s="2">
         <f t="shared" ref="H36:H38" si="7">I35</f>
-        <v>1608372.1810000001</v>
+        <v>1600372.1810000001</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:I38" si="8">H36+G36-F36</f>
-        <v>1607671.3810000001</v>
+        <v>1599671.3810000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" ref="J36:J38" si="9">I36-H36</f>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="K36" s="3">
         <f t="shared" ref="K36:K38" si="10">I36/$H$2-1</f>
-        <v>4.794613125000069E-3</v>
+        <v>4.8187066582914273E-3</v>
       </c>
       <c r="L36" t="s">
         <v>14</v>
@@ -2056,11 +2056,11 @@
       </c>
       <c r="H37" s="2">
         <f t="shared" si="7"/>
-        <v>1607671.3810000001</v>
+        <v>1599671.3810000001</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="8"/>
-        <v>1608671.3810000001</v>
+        <v>1600671.3810000001</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="9"/>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="K37" s="3">
         <f t="shared" si="10"/>
-        <v>5.4196131249999446E-3</v>
+        <v>5.4468473618090041E-3</v>
       </c>
       <c r="L37" t="s">
         <v>14</v>
@@ -2105,11 +2105,11 @@
       </c>
       <c r="H38" s="2">
         <f t="shared" si="7"/>
-        <v>1608671.3810000001</v>
+        <v>1600671.3810000001</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="8"/>
-        <v>1609780.1310000001</v>
+        <v>1601780.1310000001</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="9"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="K38" s="3">
         <f t="shared" si="10"/>
-        <v>6.1125818750000782E-3</v>
+        <v>6.1432983668341379E-3</v>
       </c>
       <c r="L38" t="s">
         <v>14</v>
@@ -2126,6 +2126,116 @@
         <v>12</v>
       </c>
       <c r="N38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <v>45316</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>31</v>
+      </c>
+      <c r="C40" s="4">
+        <v>45317</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1044</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <f>I38</f>
+        <v>1601780.1310000001</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" ref="I39:I41" si="11">H40+G40-F40</f>
+        <v>1600736.1310000001</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" ref="J39:J41" si="12">I40-H40</f>
+        <v>-1044</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" ref="K39:K41" si="13">I40/$H$2-1</f>
+        <v>5.4875194723618126E-3</v>
+      </c>
+      <c r="L40" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>32</v>
+      </c>
+      <c r="C41" s="4">
+        <v>45317</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1.222</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>10000</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>12220</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" ref="H39:H41" si="14">I40</f>
+        <v>1600736.1310000001</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="11"/>
+        <v>1602956.1310000001</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="12"/>
+        <v>2220</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="13"/>
+        <v>6.8819918341709307E-3</v>
+      </c>
+      <c r="L41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2152,7 +2262,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="1">
-        <v>1600000</v>
+        <v>1592000</v>
       </c>
     </row>
   </sheetData>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726C477-6058-4981-B923-309EFC74C3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BF93E4-9AA4-4A77-8048-5F10996FDD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{366F86FE-49DF-46DE-8503-49CC47F726F3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>DIFF</t>
+  </si>
+  <si>
+    <t>ENTERTAINMENT</t>
+  </si>
+  <si>
+    <t>WWE</t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC0D6C6-A8CC-4DE8-9852-9C65F436D37A}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +534,7 @@
     <col min="10" max="10" width="12.1796875" customWidth="1"/>
     <col min="11" max="11" width="13" style="5" customWidth="1"/>
     <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2169,15 +2175,15 @@
         <v>1601780.1310000001</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" ref="I39:I41" si="11">H40+G40-F40</f>
+        <f t="shared" ref="I40:I41" si="11">H40+G40-F40</f>
         <v>1600736.1310000001</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" ref="J39:J41" si="12">I40-H40</f>
+        <f t="shared" ref="J40:J41" si="12">I40-H40</f>
         <v>-1044</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" ref="K39:K41" si="13">I40/$H$2-1</f>
+        <f t="shared" ref="K40:K41" si="13">I40/$H$2-1</f>
         <v>5.4875194723618126E-3</v>
       </c>
       <c r="L40" t="s">
@@ -2214,7 +2220,7 @@
         <v>12220</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" ref="H39:H41" si="14">I40</f>
+        <f t="shared" ref="H41" si="14">I40</f>
         <v>1600736.1310000001</v>
       </c>
       <c r="I41" s="2">
@@ -2237,6 +2243,104 @@
       </c>
       <c r="N41" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>33</v>
+      </c>
+      <c r="C42" s="4">
+        <v>45318</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1.08</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>778</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42:G43" si="15">F42*E42*D42</f>
+        <v>840.24</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" ref="H42:H43" si="16">I41</f>
+        <v>1602956.1310000001</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" ref="I42:I43" si="17">H42+G42-F42</f>
+        <v>1603018.371</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" ref="J42:J43" si="18">I42-H42</f>
+        <v>62.239999999990687</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" ref="K42:K43" si="19">I42/$H$2-1</f>
+        <v>6.9210873115577165E-3</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43" s="4">
+        <v>45318</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>6000</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="15"/>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="16"/>
+        <v>1603018.371</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="17"/>
+        <v>1603618.371</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="18"/>
+        <v>600</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="19"/>
+        <v>7.297971733668307E-3</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BF93E4-9AA4-4A77-8048-5F10996FDD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F92994A-254C-43CF-8D92-FA71A1A8BC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{366F86FE-49DF-46DE-8503-49CC47F726F3}"/>
+    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{366F86FE-49DF-46DE-8503-49CC47F726F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>WWE</t>
+  </si>
+  <si>
+    <t>LIGA PRO</t>
   </si>
 </sst>
 </file>
@@ -155,8 +158,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -193,17 +196,17 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -520,25 +523,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC0D6C6-A8CC-4DE8-9852-9C65F436D37A}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="10.90625" style="6"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.9296875" style="6"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" customWidth="1"/>
     <col min="11" max="11" width="13" style="5" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -631,7 +634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -643,7 +646,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -655,7 +658,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -667,7 +670,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -679,7 +682,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -728,7 +731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -777,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -826,7 +829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -875,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -924,7 +927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -973,7 +976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1181,7 +1184,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1389,7 +1392,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1499,7 +1502,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2147,7 +2150,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2341,6 +2344,120 @@
       </c>
       <c r="N43" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>35</v>
+      </c>
+      <c r="C46" s="4">
+        <v>45321</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1.157</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1015</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G47" si="20">F46*E46*D46</f>
+        <v>1174.355</v>
+      </c>
+      <c r="H46" s="2">
+        <f>I43</f>
+        <v>1603618.371</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" ref="I46:I47" si="21">H46+G46-F46</f>
+        <v>1603777.726</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" ref="J46:J47" si="22">I46-H46</f>
+        <v>159.35499999998137</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" ref="K46:K47" si="23">I46/$H$2-1</f>
+        <v>7.3980690954773554E-3</v>
+      </c>
+      <c r="L46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>36</v>
+      </c>
+      <c r="C47" s="4">
+        <v>45321</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1.115</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>500</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="20"/>
+        <v>557.5</v>
+      </c>
+      <c r="H47" s="2">
+        <f>I46</f>
+        <v>1603777.726</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="21"/>
+        <v>1603835.226</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="22"/>
+        <v>57.5</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="23"/>
+        <v>7.4341871859295861E-3</v>
+      </c>
+      <c r="L47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2356,12 +2473,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F92994A-254C-43CF-8D92-FA71A1A8BC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43071107-3B47-4330-B417-47130C0B8166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{366F86FE-49DF-46DE-8503-49CC47F726F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{366F86FE-49DF-46DE-8503-49CC47F726F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -158,8 +158,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -196,17 +196,17 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -523,25 +523,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC0D6C6-A8CC-4DE8-9852-9C65F436D37A}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.9296875" style="6"/>
-    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="6"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
     <col min="11" max="11" width="13" style="5" customWidth="1"/>
-    <col min="12" max="12" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,7 +634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -646,7 +646,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -731,7 +731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -780,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -829,7 +829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -878,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -927,7 +927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -976,7 +976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>1015</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G47" si="20">F46*E46*D46</f>
+        <f t="shared" ref="G46:G52" si="20">F46*E46*D46</f>
         <v>1174.355</v>
       </c>
       <c r="H46" s="2">
@@ -2390,15 +2390,15 @@
         <v>1603618.371</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" ref="I46:I47" si="21">H46+G46-F46</f>
+        <f t="shared" ref="I46:I52" si="21">H46+G46-F46</f>
         <v>1603777.726</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" ref="J46:J47" si="22">I46-H46</f>
+        <f t="shared" ref="J46:J52" si="22">I46-H46</f>
         <v>159.35499999998137</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" ref="K46:K47" si="23">I46/$H$2-1</f>
+        <f t="shared" ref="K46:K52" si="23">I46/$H$2-1</f>
         <v>7.3980690954773554E-3</v>
       </c>
       <c r="L46" t="s">
@@ -2411,7 +2411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2458,6 +2458,140 @@
       </c>
       <c r="N47" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="4">
+        <v>45322</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="4">
+        <v>45323</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>37</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45324</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1.17</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2573</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="20"/>
+        <v>3010.41</v>
+      </c>
+      <c r="H50" s="2">
+        <f>I47</f>
+        <v>1603835.226</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="21"/>
+        <v>1604272.6359999999</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="22"/>
+        <v>437.40999999991618</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" si="23"/>
+        <v>7.7089422110552253E-3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45325</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>38</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45326</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1.143</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>4010</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="20"/>
+        <v>4583.43</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" ref="H52" si="24">I50</f>
+        <v>1604272.6359999999</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="21"/>
+        <v>1604846.0659999999</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="22"/>
+        <v>573.42999999993481</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="23"/>
+        <v>8.06913693467326E-3</v>
+      </c>
+      <c r="L52" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2473,12 +2607,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43071107-3B47-4330-B417-47130C0B8166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD9978A-70AD-43ED-8DAC-27818FD52196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{366F86FE-49DF-46DE-8503-49CC47F726F3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -227,9 +227,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,7 +267,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -373,7 +373,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC0D6C6-A8CC-4DE8-9852-9C65F436D37A}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2382,7 +2382,7 @@
         <v>1015</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G52" si="20">F46*E46*D46</f>
+        <f t="shared" ref="G46:G59" si="20">F46*E46*D46</f>
         <v>1174.355</v>
       </c>
       <c r="H46" s="2">
@@ -2592,6 +2592,127 @@
       </c>
       <c r="N52" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4">
+        <v>45327</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4">
+        <v>45328</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55" s="4">
+        <v>45329</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56" s="4">
+        <v>45330</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57" s="4">
+        <v>45331</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58" s="4">
+        <v>45332</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>39</v>
+      </c>
+      <c r="C59" s="4">
+        <v>45333</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2584</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="20"/>
+        <v>3392.7919999999999</v>
+      </c>
+      <c r="H59" s="2">
+        <f>I52</f>
+        <v>1604846.0659999999</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" ref="I59" si="25">H59+G59-F59</f>
+        <v>1605654.8579999998</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" ref="J59" si="26">I59-H59</f>
+        <v>808.79199999989942</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" ref="K59" si="27">I59/$H$2-1</f>
+        <v>8.5771721105525334E-3</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD9978A-70AD-43ED-8DAC-27818FD52196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7479AF-1BB7-4520-9B17-29E8DEAFA3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{366F86FE-49DF-46DE-8503-49CC47F726F3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC0D6C6-A8CC-4DE8-9852-9C65F436D37A}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2382,7 +2382,7 @@
         <v>1015</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G59" si="20">F46*E46*D46</f>
+        <f t="shared" ref="G46:G65" si="20">F46*E46*D46</f>
         <v>1174.355</v>
       </c>
       <c r="H46" s="2">
@@ -2694,15 +2694,15 @@
         <v>1604846.0659999999</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" ref="I59" si="25">H59+G59-F59</f>
+        <f t="shared" ref="I59:I65" si="25">H59+G59-F59</f>
         <v>1605654.8579999998</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" ref="J59" si="26">I59-H59</f>
+        <f t="shared" ref="J59:J65" si="26">I59-H59</f>
         <v>808.79199999989942</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" ref="K59" si="27">I59/$H$2-1</f>
+        <f t="shared" ref="K59:K65" si="27">I59/$H$2-1</f>
         <v>8.5771721105525334E-3</v>
       </c>
       <c r="L59" t="s">
@@ -2713,6 +2713,263 @@
       </c>
       <c r="N59" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60" s="4">
+        <v>45334</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>40</v>
+      </c>
+      <c r="C61" s="4">
+        <v>45335</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1.157</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>8000</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <f>I59</f>
+        <v>1605654.8579999998</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="25"/>
+        <v>1597654.8579999998</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="26"/>
+        <v>-8000</v>
+      </c>
+      <c r="K61" s="3">
+        <f t="shared" si="27"/>
+        <v>3.5520464824119191E-3</v>
+      </c>
+      <c r="L61" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>41</v>
+      </c>
+      <c r="C62" s="4">
+        <v>45335</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1.167</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>3392</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="20"/>
+        <v>3958.4639999999999</v>
+      </c>
+      <c r="H62" s="2">
+        <f>I61</f>
+        <v>1597654.8579999998</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="25"/>
+        <v>1598221.3219999997</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="26"/>
+        <v>566.46399999991991</v>
+      </c>
+      <c r="K62" s="3">
+        <f t="shared" si="27"/>
+        <v>3.9078655778892468E-3</v>
+      </c>
+      <c r="L62" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>42</v>
+      </c>
+      <c r="C63" s="4">
+        <v>45336</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>8000</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="20"/>
+        <v>11168</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" ref="H63:H65" si="28">I62</f>
+        <v>1598221.3219999997</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="25"/>
+        <v>1601389.3219999997</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="26"/>
+        <v>3168</v>
+      </c>
+      <c r="K63" s="3">
+        <f t="shared" si="27"/>
+        <v>5.8978153266329159E-3</v>
+      </c>
+      <c r="L63" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>43</v>
+      </c>
+      <c r="C64" s="4">
+        <v>45337</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1.143</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>5127</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="20"/>
+        <v>5860.1610000000001</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="28"/>
+        <v>1601389.3219999997</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="25"/>
+        <v>1602122.4829999998</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="26"/>
+        <v>733.16100000008009</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="27"/>
+        <v>6.3583435929646104E-3</v>
+      </c>
+      <c r="L64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>44</v>
+      </c>
+      <c r="C65" s="4">
+        <v>45338</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1.157</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>15560</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="20"/>
+        <v>18002.920000000002</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="28"/>
+        <v>1602122.4829999998</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="25"/>
+        <v>1604565.4029999997</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="26"/>
+        <v>2442.9199999999255</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="27"/>
+        <v>7.8928410804017801E-3</v>
+      </c>
+      <c r="L65" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" t="s">
+        <v>12</v>
+      </c>
+      <c r="N65" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
